--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middelhoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middelhoog.xlsx
@@ -406,25 +406,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1345</v>
+        <v>1354.354347540363</v>
       </c>
       <c r="C2">
-        <v>1324</v>
+        <v>1329.718121219282</v>
       </c>
       <c r="D2">
-        <v>862</v>
+        <v>859.4081215726277</v>
       </c>
       <c r="E2">
-        <v>1505</v>
+        <v>1513.268987381566</v>
       </c>
       <c r="F2">
-        <v>1372</v>
+        <v>1378.339868674436</v>
       </c>
       <c r="G2">
-        <v>1438</v>
+        <v>1444.187648963287</v>
       </c>
       <c r="H2">
-        <v>1506</v>
+        <v>1514.908672723289</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -432,25 +432,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1395</v>
+        <v>1401.132457741924</v>
       </c>
       <c r="C3">
-        <v>1336</v>
+        <v>1340.620711963814</v>
       </c>
       <c r="D3">
-        <v>826</v>
+        <v>829.5128950394774</v>
       </c>
       <c r="E3">
-        <v>1519</v>
+        <v>1526.353396908353</v>
       </c>
       <c r="F3">
-        <v>1408</v>
+        <v>1413.480483055562</v>
       </c>
       <c r="G3">
-        <v>1443</v>
+        <v>1450.714238129294</v>
       </c>
       <c r="H3">
-        <v>1521</v>
+        <v>1527.440964966058</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -458,25 +458,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1253</v>
+        <v>1261.470515273808</v>
       </c>
       <c r="C4">
-        <v>1381</v>
+        <v>1385.142876463339</v>
       </c>
       <c r="D4">
-        <v>576</v>
+        <v>574.0614425751155</v>
       </c>
       <c r="E4">
-        <v>1487</v>
+        <v>1495.827970547305</v>
       </c>
       <c r="F4">
-        <v>1281</v>
+        <v>1286.876200652406</v>
       </c>
       <c r="G4">
-        <v>1406</v>
+        <v>1409.905763062105</v>
       </c>
       <c r="H4">
-        <v>1489</v>
+        <v>1496.895598707136</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,25 +484,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1445</v>
+        <v>1454.593041708381</v>
       </c>
       <c r="C5">
-        <v>1432</v>
+        <v>1436.697173459555</v>
       </c>
       <c r="D5">
-        <v>317</v>
+        <v>314.0876572614094</v>
       </c>
       <c r="E5">
-        <v>1524</v>
+        <v>1533.643576109059</v>
       </c>
       <c r="F5">
-        <v>1446</v>
+        <v>1456.000842794155</v>
       </c>
       <c r="G5">
-        <v>1448</v>
+        <v>1454.454665392003</v>
       </c>
       <c r="H5">
-        <v>1524</v>
+        <v>1533.798019368191</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,25 +510,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1430</v>
+        <v>1437.299634013683</v>
       </c>
       <c r="C6">
-        <v>1428</v>
+        <v>1432.230304965013</v>
       </c>
       <c r="D6">
-        <v>154</v>
+        <v>158.1941005816666</v>
       </c>
       <c r="E6">
-        <v>1522</v>
+        <v>1529.488738046546</v>
       </c>
       <c r="F6">
-        <v>1433</v>
+        <v>1438.88443609094</v>
       </c>
       <c r="G6">
-        <v>1432</v>
+        <v>1438.279270177918</v>
       </c>
       <c r="H6">
-        <v>1522</v>
+        <v>1529.530371690483</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -536,25 +536,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1480</v>
+        <v>1488.506807391738</v>
       </c>
       <c r="C7">
-        <v>1470</v>
+        <v>1471.982866696806</v>
       </c>
       <c r="D7">
-        <v>282</v>
+        <v>287.2662924157567</v>
       </c>
       <c r="E7">
-        <v>1545</v>
+        <v>1551.682984912907</v>
       </c>
       <c r="F7">
-        <v>1482</v>
+        <v>1490.093466445672</v>
       </c>
       <c r="G7">
-        <v>1479</v>
+        <v>1483.315502256271</v>
       </c>
       <c r="H7">
-        <v>1546</v>
+        <v>1551.848641344193</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,25 +562,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1389</v>
+        <v>1396.223082153899</v>
       </c>
       <c r="C8">
-        <v>1117</v>
+        <v>1114.811042334584</v>
       </c>
       <c r="D8">
-        <v>273</v>
+        <v>276.7555218267258</v>
       </c>
       <c r="E8">
-        <v>1487</v>
+        <v>1492.356754863324</v>
       </c>
       <c r="F8">
-        <v>1389</v>
+        <v>1396.417172492213</v>
       </c>
       <c r="G8">
-        <v>1184</v>
+        <v>1181.738694825472</v>
       </c>
       <c r="H8">
-        <v>1487</v>
+        <v>1492.493178748458</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,25 +588,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1495</v>
+        <v>1501.802711532365</v>
       </c>
       <c r="C9">
-        <v>1390</v>
+        <v>1396.439384704664</v>
       </c>
       <c r="D9">
-        <v>385</v>
+        <v>387.8404871897369</v>
       </c>
       <c r="E9">
-        <v>1539</v>
+        <v>1546.03308546757</v>
       </c>
       <c r="F9">
-        <v>1497</v>
+        <v>1503.626982662522</v>
       </c>
       <c r="G9">
-        <v>1412</v>
+        <v>1420.839406625197</v>
       </c>
       <c r="H9">
-        <v>1539</v>
+        <v>1546.369023940821</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,25 +614,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1472</v>
+        <v>1473.909083247515</v>
       </c>
       <c r="C10">
-        <v>1461</v>
+        <v>1464.053630130737</v>
       </c>
       <c r="D10">
-        <v>748</v>
+        <v>747.6112428323684</v>
       </c>
       <c r="E10">
-        <v>1547</v>
+        <v>1549.14632661318</v>
       </c>
       <c r="F10">
-        <v>1485</v>
+        <v>1487.419970879135</v>
       </c>
       <c r="G10">
-        <v>1509</v>
+        <v>1513.159627900369</v>
       </c>
       <c r="H10">
-        <v>1548</v>
+        <v>1550.508552988491</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,25 +640,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1450</v>
+        <v>1459.287229046187</v>
       </c>
       <c r="C11">
-        <v>1462</v>
+        <v>1466.482912877761</v>
       </c>
       <c r="D11">
-        <v>671</v>
+        <v>663.817445183288</v>
       </c>
       <c r="E11">
-        <v>1542</v>
+        <v>1550.616153404513</v>
       </c>
       <c r="F11">
-        <v>1464</v>
+        <v>1472.247238057132</v>
       </c>
       <c r="G11">
-        <v>1503</v>
+        <v>1508.582765334469</v>
       </c>
       <c r="H11">
-        <v>1544</v>
+        <v>1551.685674726312</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -666,25 +666,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1245</v>
+        <v>1251.385818327302</v>
       </c>
       <c r="C12">
-        <v>1467</v>
+        <v>1471.719828093797</v>
       </c>
       <c r="D12">
-        <v>285</v>
+        <v>283.0229133490974</v>
       </c>
       <c r="E12">
-        <v>1531</v>
+        <v>1536.50930804584</v>
       </c>
       <c r="F12">
-        <v>1265</v>
+        <v>1268.238832989708</v>
       </c>
       <c r="G12">
-        <v>1474</v>
+        <v>1479.979521199734</v>
       </c>
       <c r="H12">
-        <v>1532</v>
+        <v>1536.649278763721</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -692,25 +692,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1462</v>
+        <v>1464.790387914299</v>
       </c>
       <c r="C13">
-        <v>1459</v>
+        <v>1462.307684232907</v>
       </c>
       <c r="D13">
-        <v>624</v>
+        <v>623.7654678184376</v>
       </c>
       <c r="E13">
-        <v>1545</v>
+        <v>1547.281993772236</v>
       </c>
       <c r="F13">
-        <v>1473</v>
+        <v>1476.087934504065</v>
       </c>
       <c r="G13">
-        <v>1497</v>
+        <v>1501.870447865611</v>
       </c>
       <c r="H13">
-        <v>1546</v>
+        <v>1548.442024655659</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middelhoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middelhoog.xlsx
@@ -418,10 +418,10 @@
         <v>1513.268987381566</v>
       </c>
       <c r="F2">
-        <v>1378.339868674436</v>
+        <v>1378.339868674437</v>
       </c>
       <c r="G2">
-        <v>1444.187648963287</v>
+        <v>1444.187648963286</v>
       </c>
       <c r="H2">
         <v>1514.908672723289</v>
@@ -438,7 +438,7 @@
         <v>1340.620711963814</v>
       </c>
       <c r="D3">
-        <v>829.5128950394774</v>
+        <v>829.5128950394776</v>
       </c>
       <c r="E3">
         <v>1526.353396908353</v>
@@ -450,7 +450,7 @@
         <v>1450.714238129294</v>
       </c>
       <c r="H3">
-        <v>1527.440964966058</v>
+        <v>1527.440964966059</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -470,10 +470,10 @@
         <v>1495.827970547305</v>
       </c>
       <c r="F4">
-        <v>1286.876200652406</v>
+        <v>1286.876200652407</v>
       </c>
       <c r="G4">
-        <v>1409.905763062105</v>
+        <v>1409.905763062106</v>
       </c>
       <c r="H4">
         <v>1496.895598707136</v>
@@ -487,10 +487,10 @@
         <v>1454.593041708381</v>
       </c>
       <c r="C5">
-        <v>1436.697173459555</v>
+        <v>1436.697173459556</v>
       </c>
       <c r="D5">
-        <v>314.0876572614094</v>
+        <v>314.0876572614089</v>
       </c>
       <c r="E5">
         <v>1533.643576109059</v>
@@ -499,10 +499,10 @@
         <v>1456.000842794155</v>
       </c>
       <c r="G5">
-        <v>1454.454665392003</v>
+        <v>1454.454665392004</v>
       </c>
       <c r="H5">
-        <v>1533.798019368191</v>
+        <v>1533.79801936819</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,25 +510,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1437.299634013683</v>
+        <v>1437.299634013682</v>
       </c>
       <c r="C6">
-        <v>1432.230304965013</v>
+        <v>1432.230304965012</v>
       </c>
       <c r="D6">
-        <v>158.1941005816666</v>
+        <v>158.1941005816663</v>
       </c>
       <c r="E6">
-        <v>1529.488738046546</v>
+        <v>1529.488738046544</v>
       </c>
       <c r="F6">
-        <v>1438.88443609094</v>
+        <v>1438.884436090939</v>
       </c>
       <c r="G6">
-        <v>1438.279270177918</v>
+        <v>1438.279270177916</v>
       </c>
       <c r="H6">
-        <v>1529.530371690483</v>
+        <v>1529.530371690482</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -536,10 +536,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1488.506807391738</v>
+        <v>1488.506807391737</v>
       </c>
       <c r="C7">
-        <v>1471.982866696806</v>
+        <v>1471.982866696805</v>
       </c>
       <c r="D7">
         <v>287.2662924157567</v>
@@ -554,7 +554,7 @@
         <v>1483.315502256271</v>
       </c>
       <c r="H7">
-        <v>1551.848641344193</v>
+        <v>1551.848641344192</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -565,22 +565,22 @@
         <v>1396.223082153899</v>
       </c>
       <c r="C8">
-        <v>1114.811042334584</v>
+        <v>1114.811042334585</v>
       </c>
       <c r="D8">
-        <v>276.7555218267258</v>
+        <v>276.755521826726</v>
       </c>
       <c r="E8">
-        <v>1492.356754863324</v>
+        <v>1492.356754863325</v>
       </c>
       <c r="F8">
-        <v>1396.417172492213</v>
+        <v>1396.417172492214</v>
       </c>
       <c r="G8">
-        <v>1181.738694825472</v>
+        <v>1181.738694825473</v>
       </c>
       <c r="H8">
-        <v>1492.493178748458</v>
+        <v>1492.493178748459</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,25 +588,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1501.802711532365</v>
+        <v>1501.802711532366</v>
       </c>
       <c r="C9">
         <v>1396.439384704664</v>
       </c>
       <c r="D9">
-        <v>387.8404871897369</v>
+        <v>387.8404871897376</v>
       </c>
       <c r="E9">
-        <v>1546.03308546757</v>
+        <v>1546.033085467571</v>
       </c>
       <c r="F9">
-        <v>1503.626982662522</v>
+        <v>1503.626982662524</v>
       </c>
       <c r="G9">
-        <v>1420.839406625197</v>
+        <v>1420.839406625198</v>
       </c>
       <c r="H9">
-        <v>1546.369023940821</v>
+        <v>1546.369023940822</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,16 +614,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1473.909083247515</v>
+        <v>1473.909083247516</v>
       </c>
       <c r="C10">
         <v>1464.053630130737</v>
       </c>
       <c r="D10">
-        <v>747.6112428323684</v>
+        <v>747.611242832369</v>
       </c>
       <c r="E10">
-        <v>1549.14632661318</v>
+        <v>1549.146326613181</v>
       </c>
       <c r="F10">
         <v>1487.419970879135</v>
@@ -632,7 +632,7 @@
         <v>1513.159627900369</v>
       </c>
       <c r="H10">
-        <v>1550.508552988491</v>
+        <v>1550.508552988492</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,25 +640,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1459.287229046187</v>
+        <v>1459.287229046188</v>
       </c>
       <c r="C11">
         <v>1466.482912877761</v>
       </c>
       <c r="D11">
-        <v>663.817445183288</v>
+        <v>663.8174451832883</v>
       </c>
       <c r="E11">
-        <v>1550.616153404513</v>
+        <v>1550.616153404514</v>
       </c>
       <c r="F11">
-        <v>1472.247238057132</v>
+        <v>1472.247238057133</v>
       </c>
       <c r="G11">
         <v>1508.582765334469</v>
       </c>
       <c r="H11">
-        <v>1551.685674726312</v>
+        <v>1551.685674726313</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -666,22 +666,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1251.385818327302</v>
+        <v>1251.385818327303</v>
       </c>
       <c r="C12">
-        <v>1471.719828093797</v>
+        <v>1471.719828093798</v>
       </c>
       <c r="D12">
-        <v>283.0229133490974</v>
+        <v>283.0229133490979</v>
       </c>
       <c r="E12">
-        <v>1536.50930804584</v>
+        <v>1536.509308045841</v>
       </c>
       <c r="F12">
-        <v>1268.238832989708</v>
+        <v>1268.238832989709</v>
       </c>
       <c r="G12">
-        <v>1479.979521199734</v>
+        <v>1479.979521199735</v>
       </c>
       <c r="H12">
         <v>1536.649278763721</v>
@@ -698,16 +698,16 @@
         <v>1462.307684232907</v>
       </c>
       <c r="D13">
-        <v>623.7654678184376</v>
+        <v>623.765467818438</v>
       </c>
       <c r="E13">
-        <v>1547.281993772236</v>
+        <v>1547.281993772237</v>
       </c>
       <c r="F13">
-        <v>1476.087934504065</v>
+        <v>1476.087934504066</v>
       </c>
       <c r="G13">
-        <v>1501.870447865611</v>
+        <v>1501.870447865612</v>
       </c>
       <c r="H13">
         <v>1548.442024655659</v>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middelhoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middelhoog.xlsx
@@ -406,25 +406,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1354.354347540363</v>
+        <v>1354</v>
       </c>
       <c r="C2">
-        <v>1329.718121219282</v>
+        <v>1330</v>
       </c>
       <c r="D2">
-        <v>859.4081215726277</v>
+        <v>859</v>
       </c>
       <c r="E2">
-        <v>1513.268987381566</v>
+        <v>1513</v>
       </c>
       <c r="F2">
-        <v>1378.339868674437</v>
+        <v>1378</v>
       </c>
       <c r="G2">
-        <v>1444.187648963286</v>
+        <v>1444</v>
       </c>
       <c r="H2">
-        <v>1514.908672723289</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -432,25 +432,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1401.132457741924</v>
+        <v>1401</v>
       </c>
       <c r="C3">
-        <v>1340.620711963814</v>
+        <v>1341</v>
       </c>
       <c r="D3">
-        <v>829.5128950394776</v>
+        <v>830</v>
       </c>
       <c r="E3">
-        <v>1526.353396908353</v>
+        <v>1526</v>
       </c>
       <c r="F3">
-        <v>1413.480483055562</v>
+        <v>1413</v>
       </c>
       <c r="G3">
-        <v>1450.714238129294</v>
+        <v>1451</v>
       </c>
       <c r="H3">
-        <v>1527.440964966059</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -458,25 +458,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1261.470515273808</v>
+        <v>1261</v>
       </c>
       <c r="C4">
-        <v>1385.142876463339</v>
+        <v>1385</v>
       </c>
       <c r="D4">
-        <v>574.0614425751155</v>
+        <v>574</v>
       </c>
       <c r="E4">
-        <v>1495.827970547305</v>
+        <v>1496</v>
       </c>
       <c r="F4">
-        <v>1286.876200652407</v>
+        <v>1287</v>
       </c>
       <c r="G4">
-        <v>1409.905763062106</v>
+        <v>1410</v>
       </c>
       <c r="H4">
-        <v>1496.895598707136</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,25 +484,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1454.593041708381</v>
+        <v>1455</v>
       </c>
       <c r="C5">
-        <v>1436.697173459556</v>
+        <v>1437</v>
       </c>
       <c r="D5">
-        <v>314.0876572614089</v>
+        <v>314</v>
       </c>
       <c r="E5">
-        <v>1533.643576109059</v>
+        <v>1534</v>
       </c>
       <c r="F5">
-        <v>1456.000842794155</v>
+        <v>1456</v>
       </c>
       <c r="G5">
-        <v>1454.454665392004</v>
+        <v>1454</v>
       </c>
       <c r="H5">
-        <v>1533.79801936819</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,25 +510,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1437.299634013682</v>
+        <v>1437</v>
       </c>
       <c r="C6">
-        <v>1432.230304965012</v>
+        <v>1432</v>
       </c>
       <c r="D6">
-        <v>158.1941005816663</v>
+        <v>158</v>
       </c>
       <c r="E6">
-        <v>1529.488738046544</v>
+        <v>1529</v>
       </c>
       <c r="F6">
-        <v>1438.884436090939</v>
+        <v>1439</v>
       </c>
       <c r="G6">
-        <v>1438.279270177916</v>
+        <v>1438</v>
       </c>
       <c r="H6">
-        <v>1529.530371690482</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -536,25 +536,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1488.506807391737</v>
+        <v>1489</v>
       </c>
       <c r="C7">
-        <v>1471.982866696805</v>
+        <v>1472</v>
       </c>
       <c r="D7">
-        <v>287.2662924157567</v>
+        <v>287</v>
       </c>
       <c r="E7">
-        <v>1551.682984912907</v>
+        <v>1552</v>
       </c>
       <c r="F7">
-        <v>1490.093466445672</v>
+        <v>1490</v>
       </c>
       <c r="G7">
-        <v>1483.315502256271</v>
+        <v>1483</v>
       </c>
       <c r="H7">
-        <v>1551.848641344192</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,25 +562,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1396.223082153899</v>
+        <v>1396</v>
       </c>
       <c r="C8">
-        <v>1114.811042334585</v>
+        <v>1115</v>
       </c>
       <c r="D8">
-        <v>276.755521826726</v>
+        <v>277</v>
       </c>
       <c r="E8">
-        <v>1492.356754863325</v>
+        <v>1492</v>
       </c>
       <c r="F8">
-        <v>1396.417172492214</v>
+        <v>1396</v>
       </c>
       <c r="G8">
-        <v>1181.738694825473</v>
+        <v>1182</v>
       </c>
       <c r="H8">
-        <v>1492.493178748459</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,25 +588,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1501.802711532366</v>
+        <v>1502</v>
       </c>
       <c r="C9">
-        <v>1396.439384704664</v>
+        <v>1396</v>
       </c>
       <c r="D9">
-        <v>387.8404871897376</v>
+        <v>388</v>
       </c>
       <c r="E9">
-        <v>1546.033085467571</v>
+        <v>1546</v>
       </c>
       <c r="F9">
-        <v>1503.626982662524</v>
+        <v>1504</v>
       </c>
       <c r="G9">
-        <v>1420.839406625198</v>
+        <v>1421</v>
       </c>
       <c r="H9">
-        <v>1546.369023940822</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,25 +614,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1473.909083247516</v>
+        <v>1474</v>
       </c>
       <c r="C10">
-        <v>1464.053630130737</v>
+        <v>1464</v>
       </c>
       <c r="D10">
-        <v>747.611242832369</v>
+        <v>748</v>
       </c>
       <c r="E10">
-        <v>1549.146326613181</v>
+        <v>1549</v>
       </c>
       <c r="F10">
-        <v>1487.419970879135</v>
+        <v>1487</v>
       </c>
       <c r="G10">
-        <v>1513.159627900369</v>
+        <v>1513</v>
       </c>
       <c r="H10">
-        <v>1550.508552988492</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,25 +640,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1459.287229046188</v>
+        <v>1459</v>
       </c>
       <c r="C11">
-        <v>1466.482912877761</v>
+        <v>1466</v>
       </c>
       <c r="D11">
-        <v>663.8174451832883</v>
+        <v>664</v>
       </c>
       <c r="E11">
-        <v>1550.616153404514</v>
+        <v>1551</v>
       </c>
       <c r="F11">
-        <v>1472.247238057133</v>
+        <v>1472</v>
       </c>
       <c r="G11">
-        <v>1508.582765334469</v>
+        <v>1509</v>
       </c>
       <c r="H11">
-        <v>1551.685674726313</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -666,25 +666,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1251.385818327303</v>
+        <v>1251</v>
       </c>
       <c r="C12">
-        <v>1471.719828093798</v>
+        <v>1472</v>
       </c>
       <c r="D12">
-        <v>283.0229133490979</v>
+        <v>283</v>
       </c>
       <c r="E12">
-        <v>1536.509308045841</v>
+        <v>1537</v>
       </c>
       <c r="F12">
-        <v>1268.238832989709</v>
+        <v>1268</v>
       </c>
       <c r="G12">
-        <v>1479.979521199735</v>
+        <v>1480</v>
       </c>
       <c r="H12">
-        <v>1536.649278763721</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -692,25 +692,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1464.790387914299</v>
+        <v>1465</v>
       </c>
       <c r="C13">
-        <v>1462.307684232907</v>
+        <v>1462</v>
       </c>
       <c r="D13">
-        <v>623.765467818438</v>
+        <v>624</v>
       </c>
       <c r="E13">
-        <v>1547.281993772237</v>
+        <v>1547</v>
       </c>
       <c r="F13">
-        <v>1476.087934504066</v>
+        <v>1476</v>
       </c>
       <c r="G13">
-        <v>1501.870447865612</v>
+        <v>1502</v>
       </c>
       <c r="H13">
-        <v>1548.442024655659</v>
+        <v>1548</v>
       </c>
     </row>
   </sheetData>
